--- a/uploads/workbooks/KIANDANGAE_ARCHDEACONRY_DATA_SUMMARY_1_9_24.xlsx
+++ b/uploads/workbooks/KIANDANGAE_ARCHDEACONRY_DATA_SUMMARY_1_9_24.xlsx
@@ -729,8 +729,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="A46" sqref="A46"/>
+    <sheetView tabSelected="1" topLeftCell="D31" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2:K46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -802,7 +802,6 @@
       </c>
       <c r="G2" s="8"/>
       <c r="H2" s="6">
-        <f t="shared" ref="H2" si="0">SUM(D2:G2)</f>
         <v>322</v>
       </c>
       <c r="I2" s="8">
@@ -812,7 +811,6 @@
         <v>42565</v>
       </c>
       <c r="K2" s="6">
-        <f>I2-J2</f>
         <v>0</v>
       </c>
       <c r="L2" s="8" t="s">
@@ -842,7 +840,6 @@
         <v>3</v>
       </c>
       <c r="H3" s="6">
-        <f t="shared" ref="H3:H41" si="1">SUM(D3:G3)</f>
         <v>234</v>
       </c>
       <c r="I3" s="8">
@@ -852,7 +849,6 @@
         <v>16625</v>
       </c>
       <c r="K3" s="6">
-        <f t="shared" ref="K3:K45" si="2">I3-J3</f>
         <v>0</v>
       </c>
       <c r="L3" s="8" t="s">
@@ -882,7 +878,6 @@
         <v>2</v>
       </c>
       <c r="H4" s="6">
-        <f t="shared" si="1"/>
         <v>165</v>
       </c>
       <c r="I4" s="8">
@@ -892,7 +887,6 @@
         <v>34360</v>
       </c>
       <c r="K4" s="6">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L4" s="8" t="s">
@@ -920,7 +914,6 @@
       </c>
       <c r="G5" s="8"/>
       <c r="H5" s="6">
-        <f t="shared" si="1"/>
         <v>121</v>
       </c>
       <c r="I5" s="8">
@@ -930,7 +923,6 @@
         <v>10000</v>
       </c>
       <c r="K5" s="6">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L5" s="8" t="s">
@@ -958,7 +950,6 @@
       </c>
       <c r="G6" s="8"/>
       <c r="H6" s="6">
-        <f t="shared" si="1"/>
         <v>180</v>
       </c>
       <c r="I6" s="8">
@@ -968,7 +959,6 @@
         <v>14255</v>
       </c>
       <c r="K6" s="6">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L6" s="8" t="s">
@@ -998,7 +988,6 @@
         <v>1</v>
       </c>
       <c r="H7" s="6">
-        <f t="shared" si="1"/>
         <v>849</v>
       </c>
       <c r="I7" s="8">
@@ -1008,7 +997,6 @@
         <v>153255</v>
       </c>
       <c r="K7" s="6">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L7" s="8" t="s">
@@ -1038,7 +1026,6 @@
         <v>2</v>
       </c>
       <c r="H8" s="6">
-        <f t="shared" si="1"/>
         <v>128</v>
       </c>
       <c r="I8" s="8">
@@ -1048,7 +1035,6 @@
         <v>19905</v>
       </c>
       <c r="K8" s="6">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L8" s="8" t="s">
@@ -1076,7 +1062,6 @@
       </c>
       <c r="G9" s="8"/>
       <c r="H9" s="6">
-        <f t="shared" si="1"/>
         <v>109</v>
       </c>
       <c r="I9" s="8">
@@ -1086,7 +1071,6 @@
         <v>21710</v>
       </c>
       <c r="K9" s="6">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L9" s="8" t="s">
@@ -1114,7 +1098,6 @@
       </c>
       <c r="G10" s="8"/>
       <c r="H10" s="6">
-        <f t="shared" si="1"/>
         <v>78</v>
       </c>
       <c r="I10" s="8">
@@ -1124,7 +1107,6 @@
         <v>15425</v>
       </c>
       <c r="K10" s="6">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L10" s="8" t="s">
@@ -1154,7 +1136,6 @@
         <v>2</v>
       </c>
       <c r="H11" s="6">
-        <f t="shared" si="1"/>
         <v>78</v>
       </c>
       <c r="I11" s="8">
@@ -1164,7 +1145,6 @@
         <v>7885</v>
       </c>
       <c r="K11" s="6">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L11" s="8" t="s">
@@ -1192,7 +1172,6 @@
       </c>
       <c r="G12" s="8"/>
       <c r="H12" s="6">
-        <f t="shared" si="1"/>
         <v>163</v>
       </c>
       <c r="I12" s="8">
@@ -1202,7 +1181,6 @@
         <v>22245</v>
       </c>
       <c r="K12" s="6">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L12" s="8" t="s">
@@ -1230,7 +1208,6 @@
       </c>
       <c r="G13" s="8"/>
       <c r="H13" s="6">
-        <f t="shared" si="1"/>
         <v>79</v>
       </c>
       <c r="I13" s="8">
@@ -1240,7 +1217,6 @@
         <v>10165</v>
       </c>
       <c r="K13" s="6">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L13" s="8" t="s">
@@ -1268,7 +1244,6 @@
       </c>
       <c r="G14" s="8"/>
       <c r="H14" s="6">
-        <f t="shared" si="1"/>
         <v>154</v>
       </c>
       <c r="I14" s="8">
@@ -1278,7 +1253,6 @@
         <v>28835</v>
       </c>
       <c r="K14" s="6">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L14" s="8" t="s">
@@ -1306,7 +1280,6 @@
       </c>
       <c r="G15" s="8"/>
       <c r="H15" s="6">
-        <f t="shared" si="1"/>
         <v>137</v>
       </c>
       <c r="I15" s="8">
@@ -1316,7 +1289,6 @@
         <v>27375</v>
       </c>
       <c r="K15" s="6">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L15" s="8" t="s">
@@ -1344,7 +1316,6 @@
       </c>
       <c r="G16" s="8"/>
       <c r="H16" s="6">
-        <f t="shared" si="1"/>
         <v>211</v>
       </c>
       <c r="I16" s="8">
@@ -1354,7 +1325,6 @@
         <v>13390</v>
       </c>
       <c r="K16" s="6">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L16" s="8" t="s">
@@ -1382,7 +1352,6 @@
       </c>
       <c r="G17" s="8"/>
       <c r="H17" s="6">
-        <f t="shared" si="1"/>
         <v>164</v>
       </c>
       <c r="I17" s="8">
@@ -1392,7 +1361,6 @@
         <v>23330</v>
       </c>
       <c r="K17" s="6">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L17" s="8" t="s">
@@ -1420,7 +1388,6 @@
       </c>
       <c r="G18" s="8"/>
       <c r="H18" s="6">
-        <f t="shared" ref="H18:H33" si="3">SUM(D18:G18)</f>
         <v>73</v>
       </c>
       <c r="I18" s="8">
@@ -1430,7 +1397,6 @@
         <v>51100</v>
       </c>
       <c r="K18" s="6">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L18" s="8" t="s">
@@ -1458,7 +1424,6 @@
       </c>
       <c r="G19" s="8"/>
       <c r="H19" s="6">
-        <f t="shared" si="3"/>
         <v>66</v>
       </c>
       <c r="I19" s="8">
@@ -1468,7 +1433,6 @@
         <v>10460</v>
       </c>
       <c r="K19" s="6">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L19" s="8" t="s">
@@ -1496,7 +1460,6 @@
       </c>
       <c r="G20" s="8"/>
       <c r="H20" s="6">
-        <f t="shared" si="3"/>
         <v>52</v>
       </c>
       <c r="I20" s="8">
@@ -1506,7 +1469,6 @@
         <v>21655</v>
       </c>
       <c r="K20" s="6">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L20" s="8" t="s">
@@ -1534,7 +1496,6 @@
       </c>
       <c r="G21" s="8"/>
       <c r="H21" s="6">
-        <f t="shared" si="3"/>
         <v>345</v>
       </c>
       <c r="I21" s="8">
@@ -1544,7 +1505,6 @@
         <v>172722</v>
       </c>
       <c r="K21" s="6">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L21" s="8" t="s">
@@ -1566,7 +1526,6 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c r="H22" s="6">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I22" s="8">
@@ -1576,7 +1535,6 @@
         <v>29320</v>
       </c>
       <c r="K22" s="6">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L22" s="8" t="s">
@@ -1604,7 +1562,6 @@
       </c>
       <c r="G23" s="8"/>
       <c r="H23" s="6">
-        <f t="shared" si="3"/>
         <v>436</v>
       </c>
       <c r="I23" s="8">
@@ -1614,7 +1571,6 @@
         <v>76925</v>
       </c>
       <c r="K23" s="6">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L23" s="8" t="s">
@@ -1642,7 +1598,6 @@
       </c>
       <c r="G24" s="8"/>
       <c r="H24" s="6">
-        <f t="shared" si="3"/>
         <v>372</v>
       </c>
       <c r="I24" s="8">
@@ -1652,7 +1607,6 @@
         <v>51180</v>
       </c>
       <c r="K24" s="6">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L24" s="8" t="s">
@@ -1680,7 +1634,6 @@
       </c>
       <c r="G25" s="8"/>
       <c r="H25" s="6">
-        <f t="shared" si="3"/>
         <v>238</v>
       </c>
       <c r="I25" s="8">
@@ -1690,7 +1643,6 @@
         <v>23400</v>
       </c>
       <c r="K25" s="6">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L25" s="8" t="s">
@@ -1718,7 +1670,6 @@
       </c>
       <c r="G26" s="8"/>
       <c r="H26" s="6">
-        <f t="shared" si="3"/>
         <v>161</v>
       </c>
       <c r="I26" s="8">
@@ -1728,7 +1679,6 @@
         <v>63255</v>
       </c>
       <c r="K26" s="6">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L26" s="8" t="s">
@@ -1756,7 +1706,6 @@
       </c>
       <c r="G27" s="8"/>
       <c r="H27" s="6">
-        <f t="shared" si="3"/>
         <v>259</v>
       </c>
       <c r="I27" s="8">
@@ -1766,7 +1715,6 @@
         <v>121565</v>
       </c>
       <c r="K27" s="6">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L27" s="8" t="s">
@@ -1794,7 +1742,6 @@
       </c>
       <c r="G28" s="8"/>
       <c r="H28" s="6">
-        <f t="shared" si="3"/>
         <v>147</v>
       </c>
       <c r="I28" s="8">
@@ -1804,7 +1751,6 @@
         <v>7770</v>
       </c>
       <c r="K28" s="6">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L28" s="8" t="s">
@@ -1832,7 +1778,6 @@
       </c>
       <c r="G29" s="8"/>
       <c r="H29" s="6">
-        <f t="shared" si="3"/>
         <v>36</v>
       </c>
       <c r="I29" s="8">
@@ -1842,7 +1787,6 @@
         <v>21950</v>
       </c>
       <c r="K29" s="6">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L29" s="8" t="s">
@@ -1870,7 +1814,6 @@
       </c>
       <c r="G30" s="8"/>
       <c r="H30" s="6">
-        <f t="shared" si="3"/>
         <v>42</v>
       </c>
       <c r="I30" s="8">
@@ -1880,7 +1823,6 @@
         <v>6355</v>
       </c>
       <c r="K30" s="6">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L30" s="8" t="s">
@@ -1908,7 +1850,6 @@
       </c>
       <c r="G31" s="8"/>
       <c r="H31" s="6">
-        <f t="shared" si="3"/>
         <v>45</v>
       </c>
       <c r="I31" s="8">
@@ -1918,7 +1859,6 @@
         <v>3630</v>
       </c>
       <c r="K31" s="6">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L31" s="8" t="s">
@@ -1946,7 +1886,6 @@
       </c>
       <c r="G32" s="8"/>
       <c r="H32" s="6">
-        <f t="shared" si="3"/>
         <v>142</v>
       </c>
       <c r="I32" s="8">
@@ -1956,7 +1895,6 @@
         <v>5000</v>
       </c>
       <c r="K32" s="6">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L32" s="8" t="s">
@@ -1984,7 +1922,6 @@
       </c>
       <c r="G33" s="8"/>
       <c r="H33" s="6">
-        <f t="shared" si="3"/>
         <v>43</v>
       </c>
       <c r="I33" s="8">
@@ -1994,7 +1931,6 @@
         <v>2830</v>
       </c>
       <c r="K33" s="6">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L33" s="8" t="s">
@@ -2016,13 +1952,11 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c r="H34" s="6">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I34" s="8"/>
       <c r="J34" s="8"/>
       <c r="K34" s="6">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L34" s="8" t="s">
@@ -2044,7 +1978,6 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c r="H35" s="6">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I35" s="8">
@@ -2054,7 +1987,6 @@
         <v>1270</v>
       </c>
       <c r="K35" s="6">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L35" s="8" t="s">
@@ -2076,7 +2008,6 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c r="H36" s="6">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I36" s="8">
@@ -2086,7 +2017,6 @@
         <v>1000</v>
       </c>
       <c r="K36" s="6">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L36" s="8" t="s">
@@ -2116,7 +2046,6 @@
         <v>1</v>
       </c>
       <c r="H37" s="6">
-        <f t="shared" si="1"/>
         <v>151</v>
       </c>
       <c r="I37" s="8">
@@ -2126,7 +2055,6 @@
         <v>46210</v>
       </c>
       <c r="K37" s="6">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L37" s="8" t="s">
@@ -2154,7 +2082,6 @@
       </c>
       <c r="G38" s="8"/>
       <c r="H38" s="6">
-        <f t="shared" si="1"/>
         <v>83</v>
       </c>
       <c r="I38" s="8">
@@ -2164,7 +2091,6 @@
         <v>49295</v>
       </c>
       <c r="K38" s="6">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L38" s="8" t="s">
@@ -2194,7 +2120,6 @@
         <v>4</v>
       </c>
       <c r="H39" s="6">
-        <f t="shared" si="1"/>
         <v>214</v>
       </c>
       <c r="I39" s="8">
@@ -2204,7 +2129,6 @@
         <v>13585</v>
       </c>
       <c r="K39" s="6">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L39" s="8" t="s">
@@ -2232,7 +2156,6 @@
       </c>
       <c r="G40" s="8"/>
       <c r="H40" s="6">
-        <f t="shared" si="1"/>
         <v>159</v>
       </c>
       <c r="I40" s="8">
@@ -2242,7 +2165,6 @@
         <v>6800</v>
       </c>
       <c r="K40" s="6">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L40" s="8" t="s">
@@ -2264,7 +2186,6 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c r="H41" s="6">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I41" s="8">
@@ -2274,7 +2195,6 @@
         <v>2040</v>
       </c>
       <c r="K41" s="6">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L41" s="8" t="s">
@@ -2304,7 +2224,6 @@
         <v>1</v>
       </c>
       <c r="H42" s="6">
-        <f t="shared" ref="H42:H45" si="4">SUM(D42:G42)</f>
         <v>157</v>
       </c>
       <c r="I42" s="8">
@@ -2314,7 +2233,6 @@
         <v>21450</v>
       </c>
       <c r="K42" s="6">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L42" s="8" t="s">
@@ -2336,7 +2254,6 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c r="H43" s="6">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I43" s="8">
@@ -2346,7 +2263,6 @@
         <v>33000</v>
       </c>
       <c r="K43" s="6">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L43" s="8" t="s">
@@ -2374,7 +2290,6 @@
         <v>1</v>
       </c>
       <c r="H44" s="6">
-        <f t="shared" si="4"/>
         <v>101</v>
       </c>
       <c r="I44" s="8">
@@ -2384,7 +2299,6 @@
         <v>12555</v>
       </c>
       <c r="K44" s="6">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L44" s="8" t="s">
@@ -2414,7 +2328,6 @@
         <v>1</v>
       </c>
       <c r="H45" s="6">
-        <f t="shared" si="4"/>
         <v>120</v>
       </c>
       <c r="I45" s="8">
@@ -2424,42 +2337,33 @@
         <v>12240</v>
       </c>
       <c r="K45" s="6">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L45" s="8"/>
     </row>
     <row r="46" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D46" s="7">
-        <f t="shared" ref="D46:K46" si="5">SUM(D2:D45)</f>
         <v>2058</v>
       </c>
       <c r="E46" s="7">
-        <f t="shared" si="5"/>
         <v>1105</v>
       </c>
       <c r="F46" s="7">
-        <f t="shared" si="5"/>
         <v>3433</v>
       </c>
       <c r="G46" s="7">
-        <f t="shared" si="5"/>
         <v>18</v>
       </c>
       <c r="H46" s="7">
-        <f t="shared" si="5"/>
         <v>6614</v>
       </c>
       <c r="I46" s="7">
-        <f t="shared" si="5"/>
         <v>1329887</v>
       </c>
       <c r="J46" s="7">
-        <f t="shared" si="5"/>
         <v>1329887</v>
       </c>
       <c r="K46" s="7">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
